--- a/KITS.xlsx
+++ b/KITS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doug\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doug\Desktop\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2C0171-E614-4B62-AC97-B6CE9AA3FF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA4DE65-6CDF-43A2-9806-43C1C4CF4421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="248">
   <si>
     <t>E-mail</t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t xml:space="preserve">Juliano </t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t xml:space="preserve">Juliano Gonçalves </t>
@@ -534,9 +531,6 @@
     <t>José Geraldo de Araújo Silva</t>
   </si>
   <si>
-    <t>31 9 8751 3823</t>
-  </si>
-  <si>
     <t>UA3571037</t>
   </si>
   <si>
@@ -663,9 +657,6 @@
     <t>Emidio Oliveira Teixeira</t>
   </si>
   <si>
-    <t>38 991265463</t>
-  </si>
-  <si>
     <t>Judite Oliveira Teixeira</t>
   </si>
   <si>
@@ -708,9 +699,6 @@
     <t>Bianca Aparecida dos Santos Mello</t>
   </si>
   <si>
-    <t>18 996342066</t>
-  </si>
-  <si>
     <t>João dos Santos</t>
   </si>
   <si>
@@ -724,9 +712,6 @@
   </si>
   <si>
     <t>Laurita Martins de Oliveira</t>
-  </si>
-  <si>
-    <t>19 99690952</t>
   </si>
   <si>
     <t>Edileia Lopes Ramalho</t>
@@ -938,8 +923,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1163,14 +1151,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="86.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
@@ -1188,11 +1176,11 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1220,32 +1208,29 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1253,28 +1238,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1282,28 +1264,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1311,25 +1290,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1337,1264 +1313,1261 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>45</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>46</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>47</v>
-      </c>
-      <c r="L7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1">
+        <v>11997003120</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
         <v>50</v>
       </c>
-      <c r="C8">
-        <v>11997003120</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>51</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
         <v>52</v>
-      </c>
-      <c r="K8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1">
+        <v>11997003120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
         <v>54</v>
       </c>
-      <c r="C9">
-        <v>11997003120</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
       <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
         <v>52</v>
-      </c>
-      <c r="K9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1">
+        <v>11997003120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
         <v>56</v>
       </c>
-      <c r="C10">
-        <v>11997003120</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>57</v>
       </c>
-      <c r="H10" t="s">
-        <v>58</v>
-      </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11997003120</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="C11">
-        <v>11997003120</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>60</v>
       </c>
-      <c r="H11" t="s">
-        <v>61</v>
-      </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1">
+        <v>31999116100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
         <v>63</v>
       </c>
-      <c r="C12">
-        <v>31999116100</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>64</v>
       </c>
-      <c r="F12" t="s">
+      <c r="J12" t="s">
         <v>65</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>66</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>67</v>
-      </c>
-      <c r="L12" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
         <v>62</v>
       </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>31999116100</v>
       </c>
       <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
         <v>69</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
         <v>70</v>
       </c>
-      <c r="F13" t="s">
+      <c r="J13" t="s">
         <v>65</v>
       </c>
-      <c r="G13" t="s">
+      <c r="K13" t="s">
         <v>71</v>
-      </c>
-      <c r="J13" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
         <v>62</v>
       </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>31999116100</v>
       </c>
       <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s">
         <v>73</v>
       </c>
-      <c r="E14" t="s">
-        <v>74</v>
-      </c>
       <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" t="s">
         <v>65</v>
-      </c>
-      <c r="J14" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>31999116100</v>
       </c>
       <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
         <v>75</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>76</v>
       </c>
-      <c r="F15" t="s">
-        <v>77</v>
-      </c>
       <c r="J15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
         <v>78</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1">
+        <v>61999648406</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
         <v>79</v>
-      </c>
-      <c r="C16">
-        <v>61999648406</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
         <v>81</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1">
+        <v>31994073371</v>
+      </c>
+      <c r="H17" t="s">
         <v>82</v>
       </c>
-      <c r="C17">
-        <v>31994073371</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>83</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>84</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>85</v>
-      </c>
-      <c r="L17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
         <v>87</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1">
+        <v>491629473668</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" t="s">
         <v>88</v>
       </c>
-      <c r="C19">
-        <f t="shared" ref="C19:C21" si="0">491629473668</f>
-        <v>491629473668</v>
-      </c>
-      <c r="D19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="J19" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" t="s">
         <v>89</v>
       </c>
-      <c r="J19" t="s">
-        <v>84</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>90</v>
-      </c>
-      <c r="L19" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
         <v>87</v>
       </c>
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
+      <c r="C20" s="1">
         <v>491629473668</v>
       </c>
       <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
         <v>92</v>
       </c>
-      <c r="E20" t="s">
-        <v>93</v>
-      </c>
       <c r="J20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" t="s">
         <v>90</v>
-      </c>
-      <c r="L20" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="1">
+        <v>491629473668</v>
+      </c>
+      <c r="D21" t="s">
         <v>94</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>491629473668</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>95</v>
       </c>
-      <c r="E21" t="s">
-        <v>96</v>
-      </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" t="s">
         <v>90</v>
-      </c>
-      <c r="L21" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s">
         <v>97</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1">
+        <v>11981038105</v>
+      </c>
+      <c r="E22" t="s">
         <v>98</v>
       </c>
-      <c r="C22">
-        <v>11981038105</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>99</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>100</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" t="s">
         <v>101</v>
       </c>
-      <c r="J22" t="s">
-        <v>84</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>102</v>
-      </c>
-      <c r="L22" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="1">
+        <v>11981038105</v>
+      </c>
+      <c r="D23" t="s">
         <v>104</v>
       </c>
-      <c r="C23">
-        <v>11981038105</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>105</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>106</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>107</v>
       </c>
-      <c r="H23" t="s">
-        <v>108</v>
-      </c>
       <c r="J23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" t="s">
         <v>102</v>
-      </c>
-      <c r="L23" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="1">
+        <v>11981038105</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
         <v>109</v>
       </c>
-      <c r="C24">
-        <v>11981038105</v>
-      </c>
-      <c r="D24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>110</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>111</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" t="s">
+        <v>101</v>
+      </c>
+      <c r="L24" t="s">
         <v>112</v>
-      </c>
-      <c r="J24" t="s">
-        <v>84</v>
-      </c>
-      <c r="K24" t="s">
-        <v>102</v>
-      </c>
-      <c r="L24" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="1">
+        <v>11981038105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
         <v>114</v>
       </c>
-      <c r="C25">
-        <v>11981038105</v>
-      </c>
-      <c r="D25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" t="s">
         <v>115</v>
       </c>
-      <c r="F25" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" t="s">
-        <v>116</v>
-      </c>
       <c r="J25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="1">
+        <v>11981038105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
         <v>117</v>
       </c>
-      <c r="C26">
-        <v>11981038105</v>
-      </c>
-      <c r="D26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" t="s">
-        <v>118</v>
-      </c>
       <c r="G26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27">
+        <v>104</v>
+      </c>
+      <c r="C27" s="1">
         <v>11981038105</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" t="s">
         <v>119</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" t="s">
         <v>120</v>
       </c>
-      <c r="G27" t="s">
-        <v>100</v>
-      </c>
-      <c r="H27" t="s">
-        <v>121</v>
-      </c>
       <c r="J27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K27" t="s">
+        <v>101</v>
+      </c>
+      <c r="L27" t="s">
         <v>102</v>
-      </c>
-      <c r="L27" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" t="s">
         <v>122</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1">
+        <v>33988937861</v>
+      </c>
+      <c r="D28" t="s">
         <v>123</v>
       </c>
-      <c r="C28">
-        <v>33988937861</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>124</v>
-      </c>
-      <c r="E28" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" t="s">
         <v>127</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1">
+        <v>31987513823</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" t="s">
         <v>128</v>
-      </c>
-      <c r="C30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D30" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" t="s">
         <v>127</v>
       </c>
-      <c r="B31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1">
+        <v>31987513823</v>
+      </c>
+      <c r="D31" t="s">
         <v>129</v>
       </c>
-      <c r="D31" t="s">
-        <v>131</v>
-      </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" t="s">
         <v>127</v>
       </c>
-      <c r="B32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" t="s">
-        <v>129</v>
+      <c r="C32" s="1">
+        <v>31987513823</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
         <v>127</v>
       </c>
-      <c r="B33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" t="s">
-        <v>129</v>
+      <c r="C33" s="1">
+        <v>31987513823</v>
       </c>
       <c r="D33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" t="s">
         <v>127</v>
       </c>
-      <c r="B34" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" t="s">
-        <v>129</v>
+      <c r="C34" s="1">
+        <v>31987513823</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" t="s">
         <v>127</v>
       </c>
-      <c r="B35" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" t="s">
-        <v>129</v>
+      <c r="C35" s="1">
+        <v>31987513823</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" t="s">
         <v>127</v>
       </c>
-      <c r="B36" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" t="s">
-        <v>129</v>
+      <c r="C36" s="1">
+        <v>31987513823</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
         <v>127</v>
       </c>
-      <c r="B37" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" t="s">
-        <v>129</v>
+      <c r="C37" s="1">
+        <v>31987513823</v>
       </c>
       <c r="D37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" t="s">
         <v>127</v>
       </c>
-      <c r="B38" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" t="s">
-        <v>129</v>
+      <c r="C38" s="1">
+        <v>31987513823</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" t="s">
         <v>127</v>
       </c>
-      <c r="B39" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" t="s">
-        <v>129</v>
+      <c r="C39" s="1">
+        <v>31987513823</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" t="s">
         <v>127</v>
       </c>
-      <c r="B40" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" t="s">
-        <v>129</v>
+      <c r="C40" s="1">
+        <v>31987513823</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" t="s">
         <v>127</v>
       </c>
-      <c r="B41" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" t="s">
-        <v>129</v>
+      <c r="C41" s="1">
+        <v>31987513823</v>
       </c>
       <c r="D41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="1">
+        <v>61993281839</v>
+      </c>
+      <c r="D42" t="s">
         <v>153</v>
       </c>
-      <c r="B42" t="s">
+      <c r="E42" t="s">
         <v>154</v>
-      </c>
-      <c r="C42">
-        <v>61993281839</v>
-      </c>
-      <c r="D42" t="s">
-        <v>155</v>
-      </c>
-      <c r="E42" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" t="s">
         <v>157</v>
       </c>
-      <c r="B44" t="s">
+      <c r="H44" t="s">
         <v>158</v>
       </c>
-      <c r="D44" t="s">
-        <v>158</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="K44" t="s">
         <v>159</v>
       </c>
-      <c r="H44" t="s">
+      <c r="L44" t="s">
         <v>160</v>
-      </c>
-      <c r="K44" t="s">
-        <v>161</v>
-      </c>
-      <c r="L44" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="1">
+        <v>14991294599</v>
+      </c>
+      <c r="D45" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" t="s">
         <v>163</v>
       </c>
-      <c r="B45" t="s">
+      <c r="F45" t="s">
         <v>164</v>
       </c>
-      <c r="C45">
-        <v>14991294599</v>
-      </c>
-      <c r="D45" t="s">
-        <v>164</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>165</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
         <v>166</v>
       </c>
-      <c r="G45" t="s">
+      <c r="L45" t="s">
         <v>167</v>
-      </c>
-      <c r="H45" t="s">
-        <v>168</v>
-      </c>
-      <c r="L45" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="1">
+        <v>38991265463</v>
+      </c>
+      <c r="D46" t="s">
         <v>170</v>
       </c>
-      <c r="B46" t="s">
+      <c r="E46" t="s">
         <v>171</v>
       </c>
-      <c r="C46" t="s">
+      <c r="F46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" t="s">
         <v>172</v>
       </c>
-      <c r="D46" t="s">
+      <c r="K46" t="s">
         <v>173</v>
-      </c>
-      <c r="E46" t="s">
-        <v>174</v>
-      </c>
-      <c r="F46" t="s">
-        <v>77</v>
-      </c>
-      <c r="H46" t="s">
-        <v>175</v>
-      </c>
-      <c r="K46" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+      <c r="C47" s="1">
+        <v>38991265463</v>
       </c>
       <c r="D47" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" t="s">
+        <v>176</v>
+      </c>
+      <c r="K47" t="s">
         <v>177</v>
       </c>
-      <c r="E47" t="s">
+      <c r="L47" t="s">
         <v>178</v>
-      </c>
-      <c r="F47" t="s">
-        <v>77</v>
-      </c>
-      <c r="H47" t="s">
-        <v>179</v>
-      </c>
-      <c r="K47" t="s">
-        <v>180</v>
-      </c>
-      <c r="L47" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
-      </c>
-      <c r="C48">
+        <v>180</v>
+      </c>
+      <c r="C48" s="1">
         <v>37991529959</v>
       </c>
       <c r="E48" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="1">
+        <v>18996342066</v>
+      </c>
+      <c r="D49" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" t="s">
         <v>185</v>
       </c>
-      <c r="B49" t="s">
+      <c r="H49" t="s">
         <v>186</v>
-      </c>
-      <c r="C49" t="s">
-        <v>187</v>
-      </c>
-      <c r="D49" t="s">
-        <v>188</v>
-      </c>
-      <c r="E49" t="s">
-        <v>189</v>
-      </c>
-      <c r="H49" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1999690952</v>
+      </c>
+      <c r="D50" t="s">
+        <v>189</v>
+      </c>
+      <c r="E50" t="s">
+        <v>190</v>
+      </c>
+      <c r="H50" t="s">
         <v>191</v>
-      </c>
-      <c r="B50" t="s">
-        <v>192</v>
-      </c>
-      <c r="C50" t="s">
-        <v>193</v>
-      </c>
-      <c r="D50" t="s">
-        <v>194</v>
-      </c>
-      <c r="E50" t="s">
-        <v>195</v>
-      </c>
-      <c r="H50" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B51" t="s">
-        <v>171</v>
-      </c>
-      <c r="C51" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+      <c r="C51" s="1">
+        <v>38991265463</v>
       </c>
       <c r="D51" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E51" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F51" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H51" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B52" t="s">
-        <v>171</v>
-      </c>
-      <c r="C52" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+      <c r="C52" s="1">
+        <v>38991265463</v>
       </c>
       <c r="D52" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F52" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
-      </c>
-      <c r="C53" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="1">
+        <v>38991265463</v>
+      </c>
+      <c r="D53" t="s">
+        <v>198</v>
+      </c>
+      <c r="E53" t="s">
+        <v>199</v>
+      </c>
+      <c r="F53" t="s">
+        <v>200</v>
+      </c>
+      <c r="G53" t="s">
+        <v>165</v>
+      </c>
+      <c r="H53" t="s">
         <v>172</v>
-      </c>
-      <c r="D53" t="s">
-        <v>203</v>
-      </c>
-      <c r="E53" t="s">
-        <v>204</v>
-      </c>
-      <c r="F53" t="s">
-        <v>205</v>
-      </c>
-      <c r="G53" t="s">
-        <v>167</v>
-      </c>
-      <c r="H53" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B54" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+      <c r="C54" s="1">
+        <v>38991265463</v>
       </c>
       <c r="D54" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E54" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F54" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H54" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
-      </c>
-      <c r="C55">
+        <v>162</v>
+      </c>
+      <c r="C55" s="1">
         <v>14991294599</v>
       </c>
       <c r="D55" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E55" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F55" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G55" t="s">
+        <v>165</v>
+      </c>
+      <c r="H55" t="s">
+        <v>206</v>
+      </c>
+      <c r="L55" t="s">
         <v>167</v>
-      </c>
-      <c r="H55" t="s">
-        <v>211</v>
-      </c>
-      <c r="L55" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="1">
+        <v>34639507559</v>
+      </c>
+      <c r="D56" t="s">
+        <v>209</v>
+      </c>
+      <c r="E56" t="s">
+        <v>210</v>
+      </c>
+      <c r="F56" t="s">
+        <v>211</v>
+      </c>
+      <c r="H56" t="s">
         <v>212</v>
       </c>
-      <c r="B56" t="s">
+      <c r="L56" t="s">
         <v>213</v>
-      </c>
-      <c r="C56">
-        <v>34639507559</v>
-      </c>
-      <c r="D56" t="s">
-        <v>214</v>
-      </c>
-      <c r="E56" t="s">
-        <v>215</v>
-      </c>
-      <c r="F56" t="s">
-        <v>216</v>
-      </c>
-      <c r="H56" t="s">
-        <v>217</v>
-      </c>
-      <c r="L56" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B58" t="s">
-        <v>221</v>
-      </c>
-      <c r="C58">
+        <v>216</v>
+      </c>
+      <c r="C58" s="1">
         <v>11992874194</v>
       </c>
       <c r="D58" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E58" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F58" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B59" t="s">
-        <v>226</v>
-      </c>
-      <c r="C59">
+        <v>221</v>
+      </c>
+      <c r="C59" s="1">
         <v>38992274890</v>
       </c>
       <c r="D59" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E59" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F59" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G59" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H59" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60">
+        <v>162</v>
+      </c>
+      <c r="C60" s="1">
         <v>14991294599</v>
       </c>
       <c r="D60" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E60" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F60" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H60" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B61" t="s">
-        <v>235</v>
-      </c>
-      <c r="C61">
+        <v>230</v>
+      </c>
+      <c r="C61" s="1">
         <v>38992168882</v>
       </c>
       <c r="D61" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E61" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>229</v>
+      </c>
+      <c r="B62" t="s">
+        <v>233</v>
+      </c>
+      <c r="D62" t="s">
         <v>234</v>
       </c>
-      <c r="B62" t="s">
-        <v>238</v>
-      </c>
-      <c r="D62" t="s">
-        <v>239</v>
-      </c>
       <c r="E62" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B63" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D63" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E63" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B64" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D64" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E64" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B65" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D65" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E65" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H65" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/KITS.xlsx
+++ b/KITS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doug\Desktop\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doug\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA4DE65-6CDF-43A2-9806-43C1C4CF4421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FF4951-FCED-408E-B679-A21D3C085A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="288">
   <si>
     <t>E-mail</t>
   </si>
@@ -173,16 +173,7 @@
     <t>Juliano.g.santos@hotmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Juliano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juliano Gonçalves </t>
-  </si>
-  <si>
     <t>ZY5528759</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>E-M183</t>
@@ -201,12 +192,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Lourdes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lourdes Gonçalves </t>
-  </si>
-  <si>
     <t>RX8360869</t>
   </si>
   <si>
@@ -219,15 +204,9 @@
     <t>Minas, Bahia, Pernambuco , Goias, Sta Catarina, Rio Grande do Sul, Rio de Janeiro, SP</t>
   </si>
   <si>
-    <t xml:space="preserve">Paulo </t>
-  </si>
-  <si>
     <t>Paulo Gonçalves dos Santos</t>
   </si>
   <si>
-    <t xml:space="preserve">PK7501625 </t>
-  </si>
-  <si>
     <t>Pai; G7SR-KRT/ Mãe ; G7SR-3VW</t>
   </si>
   <si>
@@ -240,21 +219,12 @@
     <t>Denise</t>
   </si>
   <si>
-    <t xml:space="preserve">Denise dos Santo Silva </t>
-  </si>
-  <si>
     <t>LK9866127</t>
   </si>
   <si>
     <t>Avos Paterno: G63R-J24 / G63R-1NB ..Avos Materno: G7SR-KRT/ G7SR-3VW</t>
   </si>
   <si>
-    <t xml:space="preserve">Graziele </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graziele Gonçalves </t>
-  </si>
-  <si>
     <t>GT2449359</t>
   </si>
   <si>
@@ -274,10 +244,6 @@
   </si>
   <si>
     <t>I2</t>
-  </si>
-  <si>
-    <t>Avos Paterno: Avô Falecido GVP7-RRY / Avó Viva - Bisavós: GMTB-Z58, GKST-8W8
-Avos Materno:  Avô Falecido GVPM-R7J / Avó Viva - Bisavós: GVPM-R7J, GVPG-1S1</t>
   </si>
   <si>
     <t>Por enquanto não</t>
@@ -320,9 +286,6 @@
     <t>LKK4-C74 (ID do pai dela Otacílio)</t>
   </si>
   <si>
-    <t xml:space="preserve">Maria de Souza Cabral dos Santos (minha avó materna, nascida em 1935) </t>
-  </si>
-  <si>
     <t>KY5205508</t>
   </si>
   <si>
@@ -332,9 +295,6 @@
     <t>elainemarciaalmeida@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Elaine Márcia </t>
-  </si>
-  <si>
     <t>XU2645379</t>
   </si>
   <si>
@@ -350,9 +310,6 @@
     <t>Rodrigues de Oliveira, Camargos de Lyra, Pereira de Almeida, Pereira de Leles, Almeida, Cardoso de Sant'Anna, Alves da Silva, Almeida de Oliveira e Silva.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cassius Pereira </t>
-  </si>
-  <si>
     <t>YV8576350</t>
   </si>
   <si>
@@ -362,15 +319,9 @@
     <t>Também pesquiso em todo o território nacional.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ildete Rodrigues </t>
-  </si>
-  <si>
     <t>NG1295125</t>
   </si>
   <si>
-    <t xml:space="preserve">Layla Lorena </t>
-  </si>
-  <si>
     <t>TP8375842</t>
   </si>
   <si>
@@ -387,12 +338,6 @@
   </si>
   <si>
     <t>elianajantunes@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliana Jorge Antunes </t>
-  </si>
-  <si>
-    <t>Avô paterno: GC69-C5L. Avó paterno:GC1D-LWJ  Avô materno: GC1D-FBH Avó materna: GC1D-288</t>
   </si>
   <si>
     <t>Family Search</t>
@@ -513,9 +458,6 @@
     <t>kellynataliana1@gmail.com</t>
   </si>
   <si>
-    <t>Kejlobbthjhjmjnhhnmmkmmsej mm j km nimmkmmkkkynbtmnthgjo    lly Nataliana Siinus/ggtyjhhtmão de t</t>
-  </si>
-  <si>
     <t>Leonildo Júnior Simão</t>
   </si>
   <si>
@@ -645,9 +587,6 @@
     <t>R1b</t>
   </si>
   <si>
-    <t>Avós paternos :  GLJ9-F1T / GLJS-6DS</t>
-  </si>
-  <si>
     <t>Gonçalves Dias, de Sá, Pereira Freire de Moura, Martins de Olivera, Lopes de Magalhães, Rodrigues de Oliveira, Lourenço de Araujo, Andrade</t>
   </si>
   <si>
@@ -687,9 +626,6 @@
     <t>danilorochatolentino@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Danilo de Carvalho Rocha Tolentino </t>
-  </si>
-  <si>
     <t>NE5420102</t>
   </si>
   <si>
@@ -720,9 +656,6 @@
     <t>NX5892602</t>
   </si>
   <si>
-    <t>meu avo  Antônio Lopes de Oliveira 1933–1993 L1PZ-C1Y  esposo da Laurita Martins de Oliveira</t>
-  </si>
-  <si>
     <t>Antenor Oliveira Teixeira</t>
   </si>
   <si>
@@ -765,27 +698,15 @@
     <t>WK2024138</t>
   </si>
   <si>
-    <t>Pais :  GLJ9-F1T / GLJS-6DS</t>
-  </si>
-  <si>
     <t>dea.santanna@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Andrea Sant'Anna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea </t>
-  </si>
-  <si>
     <t>ZJ9622023</t>
   </si>
   <si>
     <t>A2al</t>
   </si>
   <si>
-    <t xml:space="preserve">GV68-XSH Mãe </t>
-  </si>
-  <si>
     <t xml:space="preserve">Antunes de Oliveira, Cardoso Lopes, Soledad, Barbosa, Sant'Anna, da Cruz Prates , Fernandes Sant'Anna </t>
   </si>
   <si>
@@ -831,9 +752,6 @@
     <t>T2</t>
   </si>
   <si>
-    <t>Pais :  GC17-7WZ / GC1Q-YCS</t>
-  </si>
-  <si>
     <t>luziamsantiago@hotmail.com</t>
   </si>
   <si>
@@ -876,19 +794,221 @@
     <t>Saira.isaac@hotmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Saira Isaac dos Santos </t>
-  </si>
-  <si>
     <t>Saira</t>
   </si>
   <si>
     <t>XN7262597</t>
   </si>
   <si>
-    <t xml:space="preserve">Avós GNPP-55G Sidneia pulcino </t>
-  </si>
-  <si>
     <t>KIT</t>
+  </si>
+  <si>
+    <t>erinaldo.silva@ufvjm.edu.br</t>
+  </si>
+  <si>
+    <t>marcosmaia1404@gmail.com</t>
+  </si>
+  <si>
+    <t>kelly.1818@hotmail.com</t>
+  </si>
+  <si>
+    <t>rapunkel7@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>Juliano</t>
+  </si>
+  <si>
+    <t>Lourdes</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Graziele</t>
+  </si>
+  <si>
+    <t>Maria de Souza Cabral dos Santos (minha avó materna, nascida em 1935)</t>
+  </si>
+  <si>
+    <t>Elaine Márcia</t>
+  </si>
+  <si>
+    <t>Eliana Jorge Antunes</t>
+  </si>
+  <si>
+    <t>Kelly Nataliana</t>
+  </si>
+  <si>
+    <t>Danilo de Carvalho Rocha Tolentino</t>
+  </si>
+  <si>
+    <t>Andrea Sant'Anna</t>
+  </si>
+  <si>
+    <t>Saira Isaac dos Santos</t>
+  </si>
+  <si>
+    <t>Marcos Antonio Alves Maia</t>
+  </si>
+  <si>
+    <t>kelly Nataliana Simão</t>
+  </si>
+  <si>
+    <t>Kelly Cristina de Oliveira França</t>
+  </si>
+  <si>
+    <t>Hermes</t>
+  </si>
+  <si>
+    <t>Edeny</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>31 9 8751 3823</t>
+  </si>
+  <si>
+    <t>38 991265463</t>
+  </si>
+  <si>
+    <t>18 996342066</t>
+  </si>
+  <si>
+    <t>19 99690952</t>
+  </si>
+  <si>
+    <t>38 9 99025481</t>
+  </si>
+  <si>
+    <t>11 968494617</t>
+  </si>
+  <si>
+    <t>12 968494617</t>
+  </si>
+  <si>
+    <t>11 980285846</t>
+  </si>
+  <si>
+    <t>Juliano Gonçalves</t>
+  </si>
+  <si>
+    <t>Lourdes Gonçalves</t>
+  </si>
+  <si>
+    <t>Denise dos Santo Silva</t>
+  </si>
+  <si>
+    <t>Graziele Gonçalves</t>
+  </si>
+  <si>
+    <t>Cassius Pereira</t>
+  </si>
+  <si>
+    <t>Ildete Rodrigues</t>
+  </si>
+  <si>
+    <t>Layla Lorena</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Viturina Barbosa de Sousa</t>
+  </si>
+  <si>
+    <t>Marcos Maia</t>
+  </si>
+  <si>
+    <t>Edileia Ap Lopes</t>
+  </si>
+  <si>
+    <t>Clemência Luiza de Araujo (mãe)</t>
+  </si>
+  <si>
+    <t>Elvair Soares de Oliveira (pai)</t>
+  </si>
+  <si>
+    <t>Hermes de Souza</t>
+  </si>
+  <si>
+    <t>Edeny Sposito de Souza</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>PK7501625</t>
+  </si>
+  <si>
+    <t>Avos Paterno: Avô Falecido GVP7-RRY / Avó Viva - Bisavós: GMTB-Z58, GKST-8W8
+Avos Materno: Avô Falecido GVPM-R7J / Avó Viva - Bisavós: GVPM-R7J, GVPG-1S1</t>
+  </si>
+  <si>
+    <t>Avô paterno: GC69-C5L. Avó paterno:GC1D-LWJ Avô materno: GC1D-FBH Avó materna: GC1D-288</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>irmão</t>
+  </si>
+  <si>
+    <t>Avós paternos : GLJ9-F1T / GLJS-6DS</t>
+  </si>
+  <si>
+    <t>meu avo Antônio Lopes de Oliveira 1933–1993 L1PZ-C1Y esposo da Laurita Martins de Oliveira</t>
+  </si>
+  <si>
+    <t>Pais : GLJ9-F1T / GLJS-6DS</t>
+  </si>
+  <si>
+    <t>GV68-XSH Mãe</t>
+  </si>
+  <si>
+    <t>WG7083858</t>
+  </si>
+  <si>
+    <t>G1DR-62R, Pais: G16P-WV2, P999-NZ8.</t>
+  </si>
+  <si>
+    <t>Pais : GC17-7WZ / GC1Q-YCS</t>
+  </si>
+  <si>
+    <t>Avós GNPP-55G Sidneia pulcino</t>
+  </si>
+  <si>
+    <t>US5743778</t>
+  </si>
+  <si>
+    <t>Pais L15V-KXC / GZP7-TN1</t>
+  </si>
+  <si>
+    <t>UM8014703</t>
+  </si>
+  <si>
+    <t>CU8688476</t>
+  </si>
+  <si>
+    <t>GDR6-WYT - avó materna</t>
+  </si>
+  <si>
+    <t>JC8671696</t>
+  </si>
+  <si>
+    <t>GDR6-Z3W - avô paterno</t>
+  </si>
+  <si>
+    <t>JX7424319</t>
+  </si>
+  <si>
+    <t>Pai - GGLV-RFY</t>
+  </si>
+  <si>
+    <t>JY9777632</t>
+  </si>
+  <si>
+    <t>Pai - G2SR-R2L</t>
   </si>
 </sst>
 </file>
@@ -923,10 +1043,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1147,11 +1270,11 @@
     <tabColor rgb="FF0000FF"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1180,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1206,31 +1329,34 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1238,25 +1364,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>263</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1264,25 +1393,28 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>225</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1290,22 +1422,25 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1313,1261 +1448,1416 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>251</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1">
         <v>11997003120</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1">
         <v>11997003120</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1">
         <v>11997003120</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="C11" s="1">
         <v>11997003120</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="C12" s="1">
         <v>31999116100</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="L12" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="C13" s="1">
         <v>31999116100</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>252</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="C14" s="1">
         <v>31999116100</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>253</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="C15" s="1">
         <v>31999116100</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1">
         <v>61999648406</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="C17" s="1">
         <v>31994073371</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="L17" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1">
         <v>491629473668</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="L19" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1">
         <v>491629473668</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="K20" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="L20" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1">
         <v>491629473668</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="K21" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="L21" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1">
         <v>11981038105</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" t="s">
         <v>83</v>
       </c>
-      <c r="K22" t="s">
-        <v>101</v>
-      </c>
       <c r="L22" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C23" s="1">
         <v>11981038105</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" t="s">
         <v>83</v>
       </c>
-      <c r="K23" t="s">
-        <v>101</v>
-      </c>
       <c r="L23" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1">
         <v>11981038105</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F24" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J24" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" t="s">
         <v>83</v>
       </c>
-      <c r="K24" t="s">
-        <v>101</v>
-      </c>
       <c r="L24" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C25" s="1">
         <v>11981038105</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="J25" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" t="s">
         <v>83</v>
       </c>
-      <c r="K25" t="s">
-        <v>101</v>
-      </c>
       <c r="L25" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C26" s="1">
         <v>11981038105</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="G26" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C27" s="1">
         <v>11981038105</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="J27" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" t="s">
         <v>83</v>
       </c>
-      <c r="K27" t="s">
-        <v>101</v>
-      </c>
       <c r="L27" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="C28" s="1">
         <v>33988937861</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>105</v>
+      </c>
+      <c r="F28" t="s">
+        <v>267</v>
+      </c>
+      <c r="G28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="1">
-        <v>31987513823</v>
+        <v>108</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="1">
-        <v>31987513823</v>
+        <v>108</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="1">
-        <v>31987513823</v>
+        <v>108</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="1">
-        <v>31987513823</v>
+        <v>108</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="1">
-        <v>31987513823</v>
+        <v>108</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="1">
-        <v>31987513823</v>
+        <v>108</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="1">
-        <v>31987513823</v>
+        <v>108</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="1">
-        <v>31987513823</v>
+        <v>108</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="1">
-        <v>31987513823</v>
+        <v>108</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D39" t="s">
         <v>126</v>
       </c>
-      <c r="B39" t="s">
+      <c r="E39" t="s">
         <v>127</v>
-      </c>
-      <c r="C39" s="1">
-        <v>31987513823</v>
-      </c>
-      <c r="D39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="1">
-        <v>31987513823</v>
+        <v>108</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" s="1">
-        <v>31987513823</v>
+        <v>108</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C42" s="1">
         <v>61993281839</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="D44" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E44" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="H44" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="K44" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="L44" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C45" s="1">
         <v>14991294599</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F45" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G45" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H45" t="s">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="L45" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
-      </c>
-      <c r="C46" s="1">
-        <v>38991265463</v>
+        <v>149</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="D46" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E46" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="F46" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="H46" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="K46" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
-      </c>
-      <c r="C47" s="1">
-        <v>38991265463</v>
+        <v>149</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="D47" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E47" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="F47" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="H47" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="K47" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="L47" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B48" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="C48" s="1">
         <v>37991529959</v>
       </c>
       <c r="E48" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
-      </c>
-      <c r="C49" s="1">
-        <v>18996342066</v>
+        <v>162</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="D49" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="E49" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="H49" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B50" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1999690952</v>
+        <v>167</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="D50" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="E50" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="H50" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
-      </c>
-      <c r="C51" s="1">
-        <v>38991265463</v>
+        <v>149</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="D51" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="E51" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="F51" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="G51" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H51" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
-      </c>
-      <c r="C52" s="1">
-        <v>38991265463</v>
+        <v>149</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="D52" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="E52" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="F52" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="H52" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="1">
-        <v>38991265463</v>
+        <v>149</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="D53" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="E53" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="F53" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="G53" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H53" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
-      </c>
-      <c r="C54" s="1">
-        <v>38991265463</v>
+        <v>149</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="D54" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E54" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="F54" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="H54" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C55" s="1">
         <v>14991294599</v>
       </c>
       <c r="D55" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="F55" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="G55" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H55" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="L55" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="B56" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="C56" s="1">
         <v>34639507559</v>
       </c>
       <c r="D56" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="E56" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="F56" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="H56" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="L56" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="B58" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="C58" s="1">
         <v>11992874194</v>
       </c>
       <c r="D58" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="E58" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="F58" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B59" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="C59" s="1">
         <v>38992274890</v>
       </c>
       <c r="D59" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="E59" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="F59" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="G59" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H59" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="C60" s="1">
-        <v>14991294599</v>
+        <v>38992274890</v>
       </c>
       <c r="D60" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="E60" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="F60" t="s">
-        <v>227</v>
+        <v>178</v>
+      </c>
+      <c r="G60" t="s">
+        <v>146</v>
       </c>
       <c r="H60" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="B61" t="s">
-        <v>230</v>
+        <v>143</v>
       </c>
       <c r="C61" s="1">
-        <v>38992168882</v>
+        <v>14991294599</v>
       </c>
       <c r="D61" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="E61" t="s">
-        <v>232</v>
+        <v>200</v>
+      </c>
+      <c r="F61" t="s">
+        <v>201</v>
+      </c>
+      <c r="H61" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="B62" t="s">
-        <v>233</v>
+        <v>203</v>
+      </c>
+      <c r="C62" s="1">
+        <v>38992168882</v>
       </c>
       <c r="D62" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="E62" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="B63" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="D63" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="E63" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="B64" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="D64" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="E64" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="B65" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="D65" t="s">
+        <v>213</v>
+      </c>
+      <c r="E65" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" t="s">
+        <v>233</v>
+      </c>
+      <c r="D66" t="s">
+        <v>216</v>
+      </c>
+      <c r="E66" t="s">
+        <v>217</v>
+      </c>
+      <c r="H66" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" t="s">
+        <v>234</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E65" t="s">
+      <c r="D67" t="s">
+        <v>257</v>
+      </c>
+      <c r="E67" t="s">
+        <v>277</v>
+      </c>
+      <c r="H67" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" t="s">
+        <v>235</v>
+      </c>
+      <c r="D68" t="s">
+        <v>258</v>
+      </c>
+      <c r="E68" t="s">
+        <v>279</v>
+      </c>
+      <c r="F68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>221</v>
+      </c>
+      <c r="B69" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H65" t="s">
+      <c r="D69" t="s">
+        <v>259</v>
+      </c>
+      <c r="E69" t="s">
+        <v>280</v>
+      </c>
+      <c r="H69" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>221</v>
+      </c>
+      <c r="B70" t="s">
+        <v>236</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>246</v>
+      </c>
+      <c r="D70" t="s">
+        <v>260</v>
+      </c>
+      <c r="E70" t="s">
+        <v>282</v>
+      </c>
+      <c r="H70" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71" t="s">
+        <v>237</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D71" t="s">
+        <v>261</v>
+      </c>
+      <c r="E71" t="s">
+        <v>284</v>
+      </c>
+      <c r="G71" t="s">
+        <v>146</v>
+      </c>
+      <c r="H71" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" t="s">
+        <v>238</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D72" t="s">
+        <v>262</v>
+      </c>
+      <c r="E72" t="s">
+        <v>286</v>
+      </c>
+      <c r="H72" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/KITS.xlsx
+++ b/KITS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doug\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AB9CA0-2B70-4D22-8898-085A17EEA06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1FF03B-769B-4E9E-ABDB-076B6B4CBEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1029,9 +1029,6 @@
     <t>XM4611765</t>
   </si>
   <si>
-    <t>UA 8293137</t>
-  </si>
-  <si>
     <t>TT7978188</t>
   </si>
   <si>
@@ -1321,6 +1318,9 @@
   </si>
   <si>
     <t>ALAGOAS</t>
+  </si>
+  <si>
+    <t>UA8293137</t>
   </si>
 </sst>
 </file>
@@ -1606,8 +1606,8 @@
   <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1659,16 +1659,16 @@
     </row>
     <row r="2" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E2" t="s">
         <v>287</v>
@@ -1785,36 +1785,36 @@
     </row>
     <row r="8" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -1839,19 +1839,19 @@
     </row>
     <row r="11" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -1873,36 +1873,36 @@
     </row>
     <row r="13" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2011,16 +2011,16 @@
     </row>
     <row r="19" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E19" t="s">
         <v>290</v>
@@ -2028,19 +2028,19 @@
     </row>
     <row r="20" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2085,70 +2085,70 @@
     </row>
     <row r="23" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2288,16 +2288,16 @@
     </row>
     <row r="33" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -2316,36 +2316,36 @@
     </row>
     <row r="35" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -2505,30 +2505,30 @@
     </row>
     <row r="44" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B44" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D44" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E45" t="s">
         <v>286</v>
@@ -2576,36 +2576,36 @@
     </row>
     <row r="48" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B49" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D49" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2647,19 +2647,19 @@
     </row>
     <row r="52" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B52" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D52" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2713,16 +2713,16 @@
     </row>
     <row r="55" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B55" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D55" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E55" t="s">
         <v>282</v>
@@ -2793,19 +2793,19 @@
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B59" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D59" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E59" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2859,19 +2859,19 @@
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B62" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D62" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E62" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2896,16 +2896,16 @@
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E64" t="s">
         <v>285</v>
@@ -2933,50 +2933,50 @@
         <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D66" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E66" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B67" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D67" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E67" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B68" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D68" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E68" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3082,19 +3082,19 @@
     </row>
     <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B73" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D73" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E73" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3130,16 +3130,16 @@
     </row>
     <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B76" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D76" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E76" t="s">
         <v>292</v>
@@ -3147,33 +3147,33 @@
     </row>
     <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B77" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D77" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B78" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D78" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E78" t="s">
         <v>288</v>
@@ -3204,19 +3204,19 @@
     </row>
     <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B80" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D80" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E80" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3253,36 +3253,36 @@
     </row>
     <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B82" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D82" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E82" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B83" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D83" t="s">
+        <v>338</v>
+      </c>
+      <c r="E83" t="s">
         <v>391</v>
-      </c>
-      <c r="D83" t="s">
-        <v>339</v>
-      </c>
-      <c r="E83" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3355,33 +3355,33 @@
     </row>
     <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B88" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D88" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E88" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B89" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D89" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E89" t="s">
         <v>291</v>
@@ -3467,16 +3467,16 @@
     </row>
     <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B93" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D93" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E93" t="s">
         <v>283</v>
@@ -3484,33 +3484,33 @@
     </row>
     <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B94" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D94" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E94" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B95" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D95" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E95" t="s">
         <v>284</v>
@@ -3518,16 +3518,16 @@
     </row>
     <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B96" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D96" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E96" t="s">
         <v>293</v>
@@ -3552,19 +3552,19 @@
     </row>
     <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B98" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D98" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E98" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3655,19 +3655,19 @@
     </row>
     <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B103" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D103" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E103" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3701,16 +3701,16 @@
     </row>
     <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B105" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D105" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E105" t="s">
         <v>289</v>
@@ -3851,19 +3851,19 @@
     </row>
     <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B111" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D111" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E111" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/KITS.xlsx
+++ b/KITS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doug\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1FF03B-769B-4E9E-ABDB-076B6B4CBEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53379BD0-5608-44C8-9BEB-F9B29F581ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="415">
   <si>
     <t>E-mail</t>
   </si>
@@ -981,9 +981,6 @@
     <t>GDR6-Z3W - avô paterno</t>
   </si>
   <si>
-    <t>JX7424319</t>
-  </si>
-  <si>
     <t>Pai - GGLV-RFY</t>
   </si>
   <si>
@@ -1245,9 +1242,6 @@
     <t>Cicero</t>
   </si>
   <si>
-    <t>Eduardo Amorim Barros</t>
-  </si>
-  <si>
     <t>João Mota</t>
   </si>
   <si>
@@ -1308,9 +1302,6 @@
     <t>simoneangela2020@gmail.com</t>
   </si>
   <si>
-    <t>amorim.edu@gmail.com</t>
-  </si>
-  <si>
     <t>sefip.ms@gmail.com</t>
   </si>
   <si>
@@ -1321,6 +1312,84 @@
   </si>
   <si>
     <t>UA8293137</t>
+  </si>
+  <si>
+    <t>JD2469485</t>
+  </si>
+  <si>
+    <t>UR755874</t>
+  </si>
+  <si>
+    <t>Rafael Ribeiro de Faria</t>
+  </si>
+  <si>
+    <t>Cida Carvalho</t>
+  </si>
+  <si>
+    <t>rafaribfaria@gmail.com</t>
+  </si>
+  <si>
+    <t>L1a</t>
+  </si>
+  <si>
+    <t>avó - GSLH-W5B</t>
+  </si>
+  <si>
+    <t>Mãe - GSLH-W5B</t>
+  </si>
+  <si>
+    <t>simonejoinv25@gmail.com</t>
+  </si>
+  <si>
+    <t>Simone Barbosa de Oliveira</t>
+  </si>
+  <si>
+    <t>47 996502129</t>
+  </si>
+  <si>
+    <t>CE7481205</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>pai - G7ZM-JZS</t>
+  </si>
+  <si>
+    <t>V. Soares de Oliveira</t>
+  </si>
+  <si>
+    <t>ZB3449749</t>
+  </si>
+  <si>
+    <t>Irmão - G7ZM-JZS</t>
+  </si>
+  <si>
+    <t>proverbios1911@gmail.com</t>
+  </si>
+  <si>
+    <t>Edmilson Franco de Medeiros</t>
+  </si>
+  <si>
+    <t>T827866</t>
+  </si>
+  <si>
+    <t>elianajantunes@gmail.com</t>
+  </si>
+  <si>
+    <t>Eliana Jorge Antunes</t>
+  </si>
+  <si>
+    <t>Geralda Jorge Antunes</t>
+  </si>
+  <si>
+    <t>HS4870568</t>
+  </si>
+  <si>
+    <t>L2a</t>
+  </si>
+  <si>
+    <t>Avô paterno- GDYL-57Z</t>
   </si>
 </sst>
 </file>
@@ -1603,29 +1672,29 @@
     <tabColor rgb="FF0000FF"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="30.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="142.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="92.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="132.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="131.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1657,24 +1726,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -1691,7 +1760,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -1717,7 +1786,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -1734,7 +1803,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1766,7 +1835,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -1783,41 +1852,41 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>217</v>
       </c>
@@ -1837,24 +1906,24 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -1871,41 +1940,41 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E13" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1925,7 +1994,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>190</v>
       </c>
@@ -1951,7 +2020,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1977,7 +2046,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -2009,41 +2078,41 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E19" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -2066,7 +2135,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -2083,75 +2152,75 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E23" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B24" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D24" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E24" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E25" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E26" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -2180,7 +2249,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>132</v>
       </c>
@@ -2203,7 +2272,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2223,7 +2292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>128</v>
       </c>
@@ -2240,7 +2309,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -2266,7 +2335,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>217</v>
       </c>
@@ -2286,21 +2355,21 @@
         <v>277</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E33" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>198</v>
       </c>
@@ -2314,450 +2383,450 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E35" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>387</v>
+        <v>218</v>
       </c>
       <c r="B36" t="s">
-        <v>366</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>390</v>
+        <v>232</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="D36" t="s">
-        <v>366</v>
+        <v>256</v>
       </c>
       <c r="E36" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="G36" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>218</v>
       </c>
       <c r="B37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>242</v>
       </c>
       <c r="D37" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E37" t="s">
-        <v>278</v>
-      </c>
-      <c r="G37" t="s">
-        <v>142</v>
+        <v>279</v>
       </c>
       <c r="H37" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>233</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>242</v>
+        <v>44</v>
+      </c>
+      <c r="C38" s="1">
+        <v>11997003120</v>
       </c>
       <c r="D38" t="s">
-        <v>257</v>
+        <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" s="1">
+        <v>11997003120</v>
+      </c>
+      <c r="D40" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" t="s">
+        <v>48</v>
+      </c>
+      <c r="K40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" t="s">
+        <v>245</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>258</v>
+      </c>
+      <c r="H42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>375</v>
+      </c>
+      <c r="B43" t="s">
+        <v>343</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D43" t="s">
+        <v>343</v>
+      </c>
+      <c r="E43" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>329</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D44" t="s">
+        <v>329</v>
+      </c>
+      <c r="E44" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="1">
+        <v>14991294599</v>
+      </c>
+      <c r="D45" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" t="s">
+        <v>196</v>
+      </c>
+      <c r="F45" t="s">
+        <v>197</v>
+      </c>
+      <c r="H45" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="1">
+        <v>61999648406</v>
+      </c>
+      <c r="D46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>370</v>
+      </c>
+      <c r="B47" t="s">
+        <v>350</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D47" t="s">
+        <v>350</v>
+      </c>
+      <c r="E47" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>383</v>
+      </c>
+      <c r="B48" t="s">
+        <v>360</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D48" t="s">
+        <v>360</v>
+      </c>
+      <c r="E48" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" t="s">
+        <v>226</v>
+      </c>
+      <c r="C49" s="1">
+        <v>37991529959</v>
+      </c>
+      <c r="E49" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" s="1">
+        <v>31999116100</v>
+      </c>
+      <c r="D50" t="s">
+        <v>248</v>
+      </c>
+      <c r="E50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" t="s">
+        <v>51</v>
+      </c>
+      <c r="J50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>371</v>
+      </c>
+      <c r="B51" t="s">
+        <v>340</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D51" t="s">
+        <v>340</v>
+      </c>
+      <c r="E51" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D52" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" t="s">
+        <v>152</v>
+      </c>
+      <c r="K52" t="s">
+        <v>153</v>
+      </c>
+      <c r="L52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" t="s">
+        <v>165</v>
+      </c>
+      <c r="H53" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>367</v>
+      </c>
+      <c r="B54" t="s">
+        <v>324</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D54" t="s">
+        <v>324</v>
+      </c>
+      <c r="E54" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="1">
-        <v>11997003120</v>
-      </c>
-      <c r="D39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" t="s">
-        <v>46</v>
-      </c>
-      <c r="K39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D40" t="s">
-        <v>170</v>
-      </c>
-      <c r="E40" t="s">
-        <v>171</v>
-      </c>
-      <c r="F40" t="s">
-        <v>168</v>
-      </c>
-      <c r="H40" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" t="s">
-        <v>223</v>
-      </c>
-      <c r="C41" s="1">
-        <v>11997003120</v>
-      </c>
-      <c r="D41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E41" t="s">
-        <v>47</v>
-      </c>
-      <c r="H41" t="s">
-        <v>48</v>
-      </c>
-      <c r="K41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>221</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" t="s">
+        <v>259</v>
+      </c>
+      <c r="F55" t="s">
+        <v>258</v>
+      </c>
+      <c r="H55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>103</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B56" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D42" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D43" t="s">
-        <v>245</v>
-      </c>
-      <c r="E43" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" t="s">
-        <v>258</v>
-      </c>
-      <c r="H43" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>377</v>
-      </c>
-      <c r="B44" t="s">
-        <v>344</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D44" t="s">
-        <v>344</v>
-      </c>
-      <c r="E44" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>330</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D45" t="s">
-        <v>330</v>
-      </c>
-      <c r="E45" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" s="1">
-        <v>14991294599</v>
-      </c>
-      <c r="D46" t="s">
-        <v>195</v>
-      </c>
-      <c r="E46" t="s">
-        <v>196</v>
-      </c>
-      <c r="F46" t="s">
-        <v>197</v>
-      </c>
-      <c r="H46" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="1">
-        <v>61999648406</v>
-      </c>
-      <c r="D47" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>372</v>
-      </c>
-      <c r="B48" t="s">
-        <v>351</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D48" t="s">
-        <v>351</v>
-      </c>
-      <c r="E48" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>385</v>
-      </c>
-      <c r="B49" t="s">
-        <v>361</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D49" t="s">
-        <v>361</v>
-      </c>
-      <c r="E49" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>155</v>
-      </c>
-      <c r="B50" t="s">
-        <v>226</v>
-      </c>
-      <c r="C50" s="1">
-        <v>37991529959</v>
-      </c>
-      <c r="E50" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>224</v>
-      </c>
-      <c r="C51" s="1">
-        <v>31999116100</v>
-      </c>
-      <c r="D51" t="s">
-        <v>248</v>
-      </c>
-      <c r="E51" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" t="s">
-        <v>51</v>
-      </c>
-      <c r="J51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>373</v>
-      </c>
-      <c r="B52" t="s">
-        <v>341</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D52" t="s">
-        <v>341</v>
-      </c>
-      <c r="E52" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>144</v>
-      </c>
-      <c r="B53" t="s">
-        <v>145</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D53" t="s">
-        <v>150</v>
-      </c>
-      <c r="E53" t="s">
-        <v>151</v>
-      </c>
-      <c r="F53" t="s">
-        <v>60</v>
-      </c>
-      <c r="H53" t="s">
-        <v>152</v>
-      </c>
-      <c r="K53" t="s">
-        <v>153</v>
-      </c>
-      <c r="L53" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>162</v>
-      </c>
-      <c r="B54" t="s">
-        <v>163</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D54" t="s">
-        <v>164</v>
-      </c>
-      <c r="E54" t="s">
-        <v>165</v>
-      </c>
-      <c r="H54" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>369</v>
-      </c>
-      <c r="B55" t="s">
-        <v>325</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D55" t="s">
-        <v>325</v>
-      </c>
-      <c r="E55" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" t="s">
-        <v>221</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="E56" t="s">
-        <v>259</v>
-      </c>
-      <c r="F56" t="s">
-        <v>258</v>
-      </c>
-      <c r="H56" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" t="s">
-        <v>22</v>
-      </c>
-      <c r="K56" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -2768,640 +2837,649 @@
         <v>235</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E57" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>378</v>
+      </c>
+      <c r="B58" t="s">
+        <v>353</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D58" t="s">
+        <v>353</v>
+      </c>
+      <c r="E58" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="1">
+        <v>11997003120</v>
+      </c>
+      <c r="D59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" t="s">
+        <v>39</v>
+      </c>
+      <c r="H59" t="s">
+        <v>40</v>
+      </c>
+      <c r="K59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="1">
+        <v>491629473668</v>
+      </c>
+      <c r="D60" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" t="s">
+        <v>67</v>
+      </c>
+      <c r="J60" t="s">
+        <v>64</v>
+      </c>
+      <c r="K60" t="s">
+        <v>68</v>
+      </c>
+      <c r="L60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>375</v>
+      </c>
+      <c r="B61" t="s">
+        <v>342</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D61" t="s">
+        <v>342</v>
+      </c>
+      <c r="E61" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="1">
+        <v>11992874194</v>
+      </c>
+      <c r="D62" t="s">
+        <v>187</v>
+      </c>
+      <c r="E62" t="s">
+        <v>188</v>
+      </c>
+      <c r="F62" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>367</v>
+      </c>
+      <c r="B63" t="s">
+        <v>327</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D63" t="s">
+        <v>327</v>
+      </c>
+      <c r="E63" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>103</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B64" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D58" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>380</v>
-      </c>
-      <c r="B59" t="s">
-        <v>354</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D59" t="s">
-        <v>354</v>
-      </c>
-      <c r="E59" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="1">
-        <v>11997003120</v>
-      </c>
-      <c r="D60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" t="s">
-        <v>39</v>
-      </c>
-      <c r="H60" t="s">
-        <v>40</v>
-      </c>
-      <c r="K60" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="1">
-        <v>491629473668</v>
-      </c>
-      <c r="D61" t="s">
-        <v>66</v>
-      </c>
-      <c r="E61" t="s">
-        <v>67</v>
-      </c>
-      <c r="J61" t="s">
-        <v>64</v>
-      </c>
-      <c r="K61" t="s">
-        <v>68</v>
-      </c>
-      <c r="L61" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>377</v>
-      </c>
-      <c r="B62" t="s">
-        <v>343</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D62" t="s">
-        <v>343</v>
-      </c>
-      <c r="E62" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>185</v>
-      </c>
-      <c r="B63" t="s">
-        <v>186</v>
-      </c>
-      <c r="C63" s="1">
-        <v>11992874194</v>
-      </c>
-      <c r="D63" t="s">
-        <v>187</v>
-      </c>
-      <c r="E63" t="s">
-        <v>188</v>
-      </c>
-      <c r="F63" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>369</v>
-      </c>
-      <c r="B64" t="s">
-        <v>328</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>390</v>
-      </c>
       <c r="D64" t="s">
-        <v>328</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>103</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>235</v>
+        <v>359</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="D65" t="s">
-        <v>114</v>
+        <v>359</v>
       </c>
       <c r="E65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>374</v>
       </c>
       <c r="B66" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D66" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="E66" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B67" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D67" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E67" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>376</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>342</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>390</v>
+        <v>220</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="D68" t="s">
-        <v>342</v>
+        <v>244</v>
       </c>
       <c r="E68" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="F68" t="s">
+        <v>258</v>
+      </c>
+      <c r="H68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>220</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D69" t="s">
-        <v>244</v>
+        <v>76</v>
+      </c>
+      <c r="C69" s="1">
+        <v>11981038105</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" t="s">
-        <v>258</v>
+        <v>77</v>
+      </c>
+      <c r="G69" t="s">
+        <v>78</v>
       </c>
       <c r="H69" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="J69" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="K69" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="L69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="C70" s="1">
-        <v>11981038105</v>
+        <v>33988937861</v>
+      </c>
+      <c r="D70" t="s">
+        <v>101</v>
       </c>
       <c r="E70" t="s">
-        <v>77</v>
+        <v>102</v>
+      </c>
+      <c r="F70" t="s">
+        <v>261</v>
       </c>
       <c r="G70" t="s">
         <v>78</v>
       </c>
       <c r="H70" t="s">
-        <v>79</v>
-      </c>
-      <c r="J70" t="s">
-        <v>64</v>
-      </c>
-      <c r="K70" t="s">
-        <v>80</v>
-      </c>
-      <c r="L70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D71" t="s">
+        <v>124</v>
+      </c>
+      <c r="E71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>377</v>
+      </c>
+      <c r="B72" t="s">
+        <v>352</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D72" t="s">
+        <v>352</v>
+      </c>
+      <c r="E72" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" t="s">
+        <v>206</v>
+      </c>
+      <c r="E73" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D74" t="s">
+        <v>122</v>
+      </c>
+      <c r="E74" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>371</v>
+      </c>
+      <c r="B75" t="s">
+        <v>335</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D75" t="s">
+        <v>335</v>
+      </c>
+      <c r="E75" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>381</v>
+      </c>
+      <c r="B76" t="s">
+        <v>351</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D76" t="s">
+        <v>351</v>
+      </c>
+      <c r="E76" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>368</v>
+      </c>
+      <c r="B77" t="s">
+        <v>331</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D77" t="s">
+        <v>331</v>
+      </c>
+      <c r="E77" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" s="1">
+        <v>31999116100</v>
+      </c>
+      <c r="D78" t="s">
+        <v>249</v>
+      </c>
+      <c r="E78" t="s">
+        <v>59</v>
+      </c>
+      <c r="F78" t="s">
+        <v>60</v>
+      </c>
+      <c r="J78" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>384</v>
+      </c>
+      <c r="B79" t="s">
+        <v>363</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D79" t="s">
+        <v>363</v>
+      </c>
+      <c r="E79" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J80" t="s">
+        <v>34</v>
+      </c>
+      <c r="K80" t="s">
+        <v>35</v>
+      </c>
+      <c r="L80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>373</v>
+      </c>
+      <c r="B81" t="s">
+        <v>338</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D81" t="s">
+        <v>338</v>
+      </c>
+      <c r="E81" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>372</v>
+      </c>
+      <c r="B82" t="s">
+        <v>337</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D82" t="s">
+        <v>337</v>
+      </c>
+      <c r="E82" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D83" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>100</v>
       </c>
-      <c r="B71" t="s">
-        <v>225</v>
-      </c>
-      <c r="C71" s="1">
-        <v>33988937861</v>
-      </c>
-      <c r="D71" t="s">
-        <v>101</v>
-      </c>
-      <c r="E71" t="s">
-        <v>102</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="B84" t="s">
+        <v>230</v>
+      </c>
+      <c r="D84" t="s">
+        <v>253</v>
+      </c>
+      <c r="E84" t="s">
+        <v>273</v>
+      </c>
+      <c r="F84" t="s">
         <v>261</v>
       </c>
-      <c r="G71" t="s">
-        <v>78</v>
-      </c>
-      <c r="H71" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>103</v>
-      </c>
-      <c r="B72" t="s">
-        <v>104</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D72" t="s">
-        <v>124</v>
-      </c>
-      <c r="E72" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>379</v>
-      </c>
-      <c r="B73" t="s">
-        <v>353</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D73" t="s">
-        <v>353</v>
-      </c>
-      <c r="E73" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>198</v>
       </c>
-      <c r="B74" t="s">
-        <v>205</v>
-      </c>
-      <c r="D74" t="s">
-        <v>206</v>
-      </c>
-      <c r="E74" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>103</v>
-      </c>
-      <c r="B75" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D75" t="s">
-        <v>122</v>
-      </c>
-      <c r="E75" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>373</v>
-      </c>
-      <c r="B76" t="s">
-        <v>336</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D76" t="s">
-        <v>336</v>
-      </c>
-      <c r="E76" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>383</v>
-      </c>
-      <c r="B77" t="s">
-        <v>352</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D77" t="s">
-        <v>352</v>
-      </c>
-      <c r="E77" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>370</v>
-      </c>
-      <c r="B78" t="s">
-        <v>332</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D78" t="s">
-        <v>332</v>
-      </c>
-      <c r="E78" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>49</v>
-      </c>
-      <c r="B79" t="s">
-        <v>224</v>
-      </c>
-      <c r="C79" s="1">
-        <v>31999116100</v>
-      </c>
-      <c r="D79" t="s">
-        <v>249</v>
-      </c>
-      <c r="E79" t="s">
-        <v>59</v>
-      </c>
-      <c r="F79" t="s">
-        <v>60</v>
-      </c>
-      <c r="J79" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>386</v>
-      </c>
-      <c r="B80" t="s">
-        <v>364</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D80" t="s">
-        <v>364</v>
-      </c>
-      <c r="E80" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>28</v>
-      </c>
-      <c r="B81" t="s">
-        <v>29</v>
-      </c>
-      <c r="D81" t="s">
-        <v>30</v>
-      </c>
-      <c r="E81" t="s">
-        <v>31</v>
-      </c>
-      <c r="F81" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" t="s">
-        <v>33</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="J81" t="s">
-        <v>34</v>
-      </c>
-      <c r="K81" t="s">
-        <v>35</v>
-      </c>
-      <c r="L81" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>375</v>
-      </c>
-      <c r="B82" t="s">
-        <v>339</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D82" t="s">
-        <v>339</v>
-      </c>
-      <c r="E82" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>374</v>
-      </c>
-      <c r="B83" t="s">
-        <v>338</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D83" t="s">
-        <v>338</v>
-      </c>
-      <c r="E83" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>103</v>
-      </c>
-      <c r="B84" t="s">
-        <v>104</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D84" t="s">
-        <v>104</v>
-      </c>
-      <c r="E84" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>100</v>
-      </c>
       <c r="B85" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="D85" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="E85" t="s">
-        <v>273</v>
-      </c>
-      <c r="F85" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="B86" t="s">
-        <v>202</v>
+        <v>229</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="D86" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="E86" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="H86" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>216</v>
+        <v>380</v>
       </c>
       <c r="B87" t="s">
-        <v>229</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>239</v>
+        <v>355</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="D87" t="s">
-        <v>252</v>
+        <v>355</v>
       </c>
       <c r="E87" t="s">
-        <v>271</v>
-      </c>
-      <c r="H87" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B88" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D88" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="E88" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="B89" t="s">
-        <v>335</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>390</v>
+        <v>191</v>
+      </c>
+      <c r="C89" s="1">
+        <v>38992274890</v>
       </c>
       <c r="D89" t="s">
-        <v>335</v>
+        <v>251</v>
       </c>
       <c r="E89" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="F89" t="s">
+        <v>174</v>
+      </c>
+      <c r="G89" t="s">
+        <v>142</v>
+      </c>
+      <c r="H89" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="C90" s="1">
-        <v>38992274890</v>
+        <v>14991294599</v>
       </c>
       <c r="D90" t="s">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="E90" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="F90" t="s">
         <v>174</v>
@@ -3410,381 +3488,390 @@
         <v>142</v>
       </c>
       <c r="H90" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="L90" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
-      </c>
-      <c r="C91" s="1">
-        <v>14991294599</v>
+        <v>145</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="D91" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
         <v>174</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>367</v>
+      </c>
+      <c r="B92" t="s">
+        <v>325</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D92" t="s">
+        <v>325</v>
+      </c>
+      <c r="E92" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>385</v>
+      </c>
+      <c r="B93" t="s">
+        <v>365</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D93" t="s">
+        <v>365</v>
+      </c>
+      <c r="E93" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>367</v>
+      </c>
+      <c r="B94" t="s">
+        <v>326</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D94" t="s">
+        <v>326</v>
+      </c>
+      <c r="E94" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>372</v>
+      </c>
+      <c r="B95" t="s">
+        <v>336</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D95" t="s">
+        <v>336</v>
+      </c>
+      <c r="E95" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>211</v>
+      </c>
+      <c r="B96" t="s">
+        <v>228</v>
+      </c>
+      <c r="D96" t="s">
+        <v>212</v>
+      </c>
+      <c r="E96" t="s">
+        <v>213</v>
+      </c>
+      <c r="H96" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>376</v>
+      </c>
+      <c r="B97" t="s">
+        <v>348</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D97" t="s">
+        <v>348</v>
+      </c>
+      <c r="E97" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C98" s="1">
+        <v>31999116100</v>
+      </c>
+      <c r="D98" t="s">
+        <v>224</v>
+      </c>
+      <c r="E98" t="s">
+        <v>50</v>
+      </c>
+      <c r="F98" t="s">
+        <v>51</v>
+      </c>
+      <c r="J98" t="s">
+        <v>52</v>
+      </c>
+      <c r="K98" t="s">
+        <v>53</v>
+      </c>
+      <c r="L98" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>144</v>
+      </c>
+      <c r="B99" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D99" t="s">
+        <v>166</v>
+      </c>
+      <c r="E99" t="s">
+        <v>167</v>
+      </c>
+      <c r="F99" t="s">
+        <v>168</v>
+      </c>
+      <c r="G99" t="s">
         <v>142</v>
       </c>
-      <c r="H91" t="s">
-        <v>265</v>
-      </c>
-      <c r="L91" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="H99" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>144</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B101" t="s">
         <v>145</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D92" t="s">
-        <v>175</v>
-      </c>
-      <c r="E92" t="s">
-        <v>176</v>
-      </c>
-      <c r="F92" t="s">
-        <v>174</v>
-      </c>
-      <c r="H92" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="D101" t="s">
+        <v>146</v>
+      </c>
+      <c r="E101" t="s">
+        <v>147</v>
+      </c>
+      <c r="F101" t="s">
+        <v>60</v>
+      </c>
+      <c r="H101" t="s">
+        <v>148</v>
+      </c>
+      <c r="K101" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>381</v>
+      </c>
+      <c r="B102" t="s">
+        <v>357</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D102" t="s">
+        <v>357</v>
+      </c>
+      <c r="E102" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103" t="s">
+        <v>224</v>
+      </c>
+      <c r="C103" s="1">
+        <v>31999116100</v>
+      </c>
+      <c r="D103" t="s">
+        <v>247</v>
+      </c>
+      <c r="E103" t="s">
+        <v>55</v>
+      </c>
+      <c r="F103" t="s">
+        <v>51</v>
+      </c>
+      <c r="G103" t="s">
+        <v>56</v>
+      </c>
+      <c r="J103" t="s">
+        <v>52</v>
+      </c>
+      <c r="K103" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>369</v>
       </c>
-      <c r="B93" t="s">
-        <v>326</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D93" t="s">
-        <v>326</v>
-      </c>
-      <c r="E93" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>388</v>
-      </c>
-      <c r="B94" t="s">
-        <v>367</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D94" t="s">
-        <v>367</v>
-      </c>
-      <c r="E94" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>369</v>
-      </c>
-      <c r="B95" t="s">
-        <v>327</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D95" t="s">
-        <v>327</v>
-      </c>
-      <c r="E95" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>374</v>
-      </c>
-      <c r="B96" t="s">
-        <v>337</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D96" t="s">
-        <v>337</v>
-      </c>
-      <c r="E96" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>211</v>
-      </c>
-      <c r="B97" t="s">
-        <v>228</v>
-      </c>
-      <c r="D97" t="s">
-        <v>212</v>
-      </c>
-      <c r="E97" t="s">
-        <v>213</v>
-      </c>
-      <c r="H97" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>378</v>
-      </c>
-      <c r="B98" t="s">
-        <v>349</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D98" t="s">
-        <v>349</v>
-      </c>
-      <c r="E98" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>49</v>
-      </c>
-      <c r="B99" t="s">
-        <v>224</v>
-      </c>
-      <c r="C99" s="1">
-        <v>31999116100</v>
-      </c>
-      <c r="D99" t="s">
-        <v>224</v>
-      </c>
-      <c r="E99" t="s">
-        <v>50</v>
-      </c>
-      <c r="F99" t="s">
-        <v>51</v>
-      </c>
-      <c r="J99" t="s">
-        <v>52</v>
-      </c>
-      <c r="K99" t="s">
-        <v>53</v>
-      </c>
-      <c r="L99" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>144</v>
-      </c>
-      <c r="B100" t="s">
-        <v>145</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D100" t="s">
-        <v>166</v>
-      </c>
-      <c r="E100" t="s">
-        <v>167</v>
-      </c>
-      <c r="F100" t="s">
-        <v>168</v>
-      </c>
-      <c r="G100" t="s">
-        <v>142</v>
-      </c>
-      <c r="H100" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E101" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>144</v>
-      </c>
-      <c r="B102" t="s">
-        <v>145</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D102" t="s">
-        <v>146</v>
-      </c>
-      <c r="E102" t="s">
-        <v>147</v>
-      </c>
-      <c r="F102" t="s">
-        <v>60</v>
-      </c>
-      <c r="H102" t="s">
-        <v>148</v>
-      </c>
-      <c r="K102" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>383</v>
-      </c>
-      <c r="B103" t="s">
-        <v>358</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D103" t="s">
-        <v>358</v>
-      </c>
-      <c r="E103" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>49</v>
-      </c>
       <c r="B104" t="s">
-        <v>224</v>
-      </c>
-      <c r="C104" s="1">
-        <v>31999116100</v>
+        <v>332</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="D104" t="s">
-        <v>247</v>
+        <v>332</v>
       </c>
       <c r="E104" t="s">
-        <v>55</v>
-      </c>
-      <c r="F104" t="s">
-        <v>51</v>
-      </c>
-      <c r="G104" t="s">
-        <v>56</v>
-      </c>
-      <c r="J104" t="s">
-        <v>52</v>
-      </c>
-      <c r="K104" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>371</v>
+        <v>198</v>
       </c>
       <c r="B105" t="s">
-        <v>333</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>390</v>
+        <v>199</v>
+      </c>
+      <c r="C105" s="1">
+        <v>38992168882</v>
       </c>
       <c r="D105" t="s">
-        <v>333</v>
+        <v>200</v>
       </c>
       <c r="E105" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="B106" t="s">
-        <v>199</v>
-      </c>
-      <c r="C106" s="1">
-        <v>38992168882</v>
+        <v>158</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="D106" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H106" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="B107" t="s">
-        <v>158</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
+      </c>
+      <c r="C107" s="1">
+        <v>34639507559</v>
       </c>
       <c r="D107" t="s">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="E107" t="s">
-        <v>160</v>
+        <v>181</v>
+      </c>
+      <c r="F107" t="s">
+        <v>182</v>
       </c>
       <c r="H107" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="L107" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="B108" t="s">
-        <v>227</v>
+        <v>83</v>
       </c>
       <c r="C108" s="1">
-        <v>34639507559</v>
+        <v>11981038105</v>
       </c>
       <c r="D108" t="s">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="E108" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="F108" t="s">
-        <v>182</v>
+        <v>98</v>
+      </c>
+      <c r="G108" t="s">
+        <v>78</v>
       </c>
       <c r="H108" t="s">
-        <v>266</v>
+        <v>99</v>
+      </c>
+      <c r="J108" t="s">
+        <v>64</v>
+      </c>
+      <c r="K108" t="s">
+        <v>80</v>
       </c>
       <c r="L108" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>75</v>
       </c>
       <c r="B109" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C109" s="1">
         <v>11981038105</v>
@@ -3793,16 +3880,16 @@
         <v>83</v>
       </c>
       <c r="E109" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F109" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G109" t="s">
         <v>78</v>
       </c>
       <c r="H109" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J109" t="s">
         <v>64</v>
@@ -3811,99 +3898,196 @@
         <v>80</v>
       </c>
       <c r="L109" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>75</v>
+        <v>382</v>
       </c>
       <c r="B110" t="s">
-        <v>92</v>
-      </c>
-      <c r="C110" s="1">
-        <v>11981038105</v>
+        <v>328</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="D110" t="s">
-        <v>83</v>
+        <v>328</v>
       </c>
       <c r="E110" t="s">
-        <v>93</v>
-      </c>
-      <c r="F110" t="s">
-        <v>85</v>
-      </c>
-      <c r="G110" t="s">
-        <v>78</v>
-      </c>
-      <c r="H110" t="s">
-        <v>94</v>
-      </c>
-      <c r="J110" t="s">
-        <v>64</v>
-      </c>
-      <c r="K110" t="s">
-        <v>80</v>
-      </c>
-      <c r="L110" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>384</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>329</v>
-      </c>
-      <c r="C111" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D111" t="s">
+        <v>243</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
+        <v>258</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" t="s">
+        <v>12</v>
+      </c>
+      <c r="J111" t="s">
+        <v>13</v>
+      </c>
+      <c r="K111" t="s">
+        <v>14</v>
+      </c>
+      <c r="L111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>393</v>
+      </c>
+      <c r="B112" t="s">
+        <v>391</v>
+      </c>
+      <c r="C112" s="1">
+        <v>31998173777</v>
+      </c>
+      <c r="D112" t="s">
+        <v>391</v>
+      </c>
+      <c r="E112" t="s">
+        <v>389</v>
+      </c>
+      <c r="F112" t="s">
+        <v>394</v>
+      </c>
+      <c r="G112" t="s">
+        <v>142</v>
+      </c>
+      <c r="H112" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>393</v>
+      </c>
+      <c r="B113" t="s">
+        <v>391</v>
+      </c>
+      <c r="C113" s="1">
+        <v>31998173777</v>
+      </c>
+      <c r="D113" t="s">
+        <v>392</v>
+      </c>
+      <c r="E113" t="s">
         <v>390</v>
       </c>
-      <c r="D111" t="s">
-        <v>329</v>
-      </c>
-      <c r="E111" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>9</v>
-      </c>
-      <c r="B112" t="s">
-        <v>219</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D112" t="s">
-        <v>243</v>
-      </c>
-      <c r="E112" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112" t="s">
-        <v>258</v>
-      </c>
-      <c r="G112" t="s">
-        <v>11</v>
-      </c>
-      <c r="H112" t="s">
-        <v>12</v>
-      </c>
-      <c r="J112" t="s">
-        <v>13</v>
-      </c>
-      <c r="K112" t="s">
-        <v>14</v>
-      </c>
-      <c r="L112" t="s">
-        <v>15</v>
+      <c r="F113" t="s">
+        <v>394</v>
+      </c>
+      <c r="H113" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>397</v>
+      </c>
+      <c r="B114" t="s">
+        <v>398</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D114" t="s">
+        <v>398</v>
+      </c>
+      <c r="E114" t="s">
+        <v>400</v>
+      </c>
+      <c r="F114" t="s">
+        <v>401</v>
+      </c>
+      <c r="H114" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>397</v>
+      </c>
+      <c r="B115" t="s">
+        <v>398</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D115" t="s">
+        <v>403</v>
+      </c>
+      <c r="E115" t="s">
+        <v>404</v>
+      </c>
+      <c r="F115" t="s">
+        <v>98</v>
+      </c>
+      <c r="H115" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>406</v>
+      </c>
+      <c r="B116" t="s">
+        <v>407</v>
+      </c>
+      <c r="C116" s="1">
+        <v>41996529701</v>
+      </c>
+      <c r="E116" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>409</v>
+      </c>
+      <c r="B117" t="s">
+        <v>410</v>
+      </c>
+      <c r="C117" s="1">
+        <v>31994073371</v>
+      </c>
+      <c r="D117" t="s">
+        <v>411</v>
+      </c>
+      <c r="E117" t="s">
+        <v>412</v>
+      </c>
+      <c r="F117" t="s">
+        <v>413</v>
+      </c>
+      <c r="H117" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L112">
-    <sortCondition ref="E2:E112"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L111">
+    <sortCondition ref="E2:E111"/>
   </sortState>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/KITS.xlsx
+++ b/KITS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doug\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53379BD0-5608-44C8-9BEB-F9B29F581ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E6E992-E47D-4985-9B7C-2D5362149943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="439">
   <si>
     <t>E-mail</t>
   </si>
@@ -1390,6 +1390,78 @@
   </si>
   <si>
     <t>Avô paterno- GDYL-57Z</t>
+  </si>
+  <si>
+    <t>Paulo Cesar Lucas Mendes</t>
+  </si>
+  <si>
+    <t>KH7387741</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Mae - PQ5M-RCT / Pai GZF7-96M</t>
+  </si>
+  <si>
+    <t>martinelly1@yahoo.com</t>
+  </si>
+  <si>
+    <t>Martinelly Vieira Martins</t>
+  </si>
+  <si>
+    <t>(31) 99559-7820</t>
+  </si>
+  <si>
+    <t>UX8305420</t>
+  </si>
+  <si>
+    <t>L1c3</t>
+  </si>
+  <si>
+    <t>LYPX-6DF</t>
+  </si>
+  <si>
+    <t>Bianca Mello</t>
+  </si>
+  <si>
+    <t>(18) 996342066</t>
+  </si>
+  <si>
+    <t>GZ9117955</t>
+  </si>
+  <si>
+    <t>renato.flister@gmail.com</t>
+  </si>
+  <si>
+    <t>Renato Souza Lima</t>
+  </si>
+  <si>
+    <t>31 99556-2131</t>
+  </si>
+  <si>
+    <t>CZ4140450</t>
+  </si>
+  <si>
+    <t>R1a</t>
+  </si>
+  <si>
+    <t>Paterno = GR75-3DT / GR7P-2L7 - Materno = GQF1-4HB / GR75-ZJ6</t>
+  </si>
+  <si>
+    <t>Salinas, Teofilo Otoni, Maranhao de Minas, Montes Claros, Topazio, Aracuiai, Pescador</t>
+  </si>
+  <si>
+    <t>Pereira Lima, Schimidt, Roedel, Wolf, Both, Gomes Pereira, Souza Passos, Barbosa Lima, Francisco de Barros,Zeferino da Silva, Mata dos Santos, Franz</t>
+  </si>
+  <si>
+    <t>Edeilza Barbosa dos Santos</t>
+  </si>
+  <si>
+    <t>WE9043616</t>
   </si>
 </sst>
 </file>
@@ -1672,11 +1744,11 @@
     <tabColor rgb="FF0000FF"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L117"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3979,7 +4051,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>393</v>
       </c>
@@ -4002,7 +4074,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>397</v>
       </c>
@@ -4025,7 +4097,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>397</v>
       </c>
@@ -4048,7 +4120,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>406</v>
       </c>
@@ -4062,7 +4134,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>409</v>
       </c>
@@ -4083,6 +4155,118 @@
       </c>
       <c r="H117" t="s">
         <v>414</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>415</v>
+      </c>
+      <c r="D118" t="s">
+        <v>415</v>
+      </c>
+      <c r="E118" t="s">
+        <v>416</v>
+      </c>
+      <c r="F118" t="s">
+        <v>417</v>
+      </c>
+      <c r="G118" t="s">
+        <v>418</v>
+      </c>
+      <c r="H118" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>420</v>
+      </c>
+      <c r="B119" t="s">
+        <v>421</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D119" t="s">
+        <v>421</v>
+      </c>
+      <c r="E119" t="s">
+        <v>423</v>
+      </c>
+      <c r="F119" t="s">
+        <v>424</v>
+      </c>
+      <c r="H119" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>157</v>
+      </c>
+      <c r="B120" t="s">
+        <v>426</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D120" t="s">
+        <v>426</v>
+      </c>
+      <c r="E120" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>429</v>
+      </c>
+      <c r="B121" t="s">
+        <v>430</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D121" t="s">
+        <v>430</v>
+      </c>
+      <c r="E121" t="s">
+        <v>432</v>
+      </c>
+      <c r="F121" t="s">
+        <v>174</v>
+      </c>
+      <c r="G121" t="s">
+        <v>433</v>
+      </c>
+      <c r="H121" t="s">
+        <v>434</v>
+      </c>
+      <c r="L121" t="s">
+        <v>435</v>
+      </c>
+      <c r="M121" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>157</v>
+      </c>
+      <c r="B122" t="s">
+        <v>426</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D122" t="s">
+        <v>437</v>
+      </c>
+      <c r="E122" t="s">
+        <v>438</v>
+      </c>
+      <c r="F122" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
